--- a/src/files/geOperarioGeneral.xlsx
+++ b/src/files/geOperarioGeneral.xlsx
@@ -8,15 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\proyects\hallazgos\hallazgos-api\src\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C52A076-7905-47C0-90AF-E53553A6FFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FC82E7-B0C6-423F-9F04-B38BB35632B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guia entrenamiento Ver. 04 (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t xml:space="preserve">GUÍA DE ENTRENAMIENTO </t>
   </si>
@@ -81,15 +78,6 @@
   </si>
   <si>
     <t>OBSERVACIONES</t>
-  </si>
-  <si>
-    <t>Generalidades de Control de Calidad</t>
-  </si>
-  <si>
-    <t>Generalidades de Microbiología</t>
-  </si>
-  <si>
-    <t>Generalidades de Buenas Prácticas de Manufactura</t>
   </si>
   <si>
     <t>1 DE 2</t>
@@ -135,210 +123,6 @@
   <si>
     <t>2 DE 2</t>
   </si>
-  <si>
-    <t>Areas</t>
-  </si>
-  <si>
-    <t>Tesoreria</t>
-  </si>
-  <si>
-    <t>Innovacion</t>
-  </si>
-  <si>
-    <t>Producción</t>
-  </si>
-  <si>
-    <t>Contabilidad e Impuestos</t>
-  </si>
-  <si>
-    <t>Ingenieria</t>
-  </si>
-  <si>
-    <t>Gestión Humana</t>
-  </si>
-  <si>
-    <t>Proyectos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistemas y Sistema de Gestión </t>
-  </si>
-  <si>
-    <t>Logistica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calidad </t>
-  </si>
-  <si>
-    <t>Empaques</t>
-  </si>
-  <si>
-    <t>Comercial</t>
-  </si>
-  <si>
-    <t>Estatus</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>ÑO</t>
-  </si>
-  <si>
-    <t>Materiales</t>
-  </si>
-  <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
-    <t>Hostapur OS Liquido</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>Glicerina</t>
-  </si>
-  <si>
-    <t>Dietanolamida de coco</t>
-  </si>
-  <si>
-    <t>Amphosol CS-50</t>
-  </si>
-  <si>
-    <t>Fragancias de varios aromas</t>
-  </si>
-  <si>
-    <t>Aceite mineral</t>
-  </si>
-  <si>
-    <t>Tego betain F 50</t>
-  </si>
-  <si>
-    <t>Ninol CAA</t>
-  </si>
-  <si>
-    <t>Polyquaternium 7</t>
-  </si>
-  <si>
-    <t>Dehyquart CC7</t>
-  </si>
-  <si>
-    <t>Fenoxietanol</t>
-  </si>
-  <si>
-    <t>Alcohol etílico 96°</t>
-  </si>
-  <si>
-    <t>Tarimas de madera</t>
-  </si>
-  <si>
-    <t>Kg</t>
-  </si>
-  <si>
-    <t>Cartón</t>
-  </si>
-  <si>
-    <t>Plástico</t>
-  </si>
-  <si>
-    <t>Papel</t>
-  </si>
-  <si>
-    <t>Mobiliario</t>
-  </si>
-  <si>
-    <t>Tarimas de plástico</t>
-  </si>
-  <si>
-    <t>PEG 40 Hidrogenado</t>
-  </si>
-  <si>
-    <t>Sal tetrasódica</t>
-  </si>
-  <si>
-    <t>Cutina GMS</t>
-  </si>
-  <si>
-    <t>Glucamate DOE-120</t>
-  </si>
-  <si>
-    <t>Metabeds microwax</t>
-  </si>
-  <si>
-    <t>Jabón Base Opaca 80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microcare SB </t>
-  </si>
-  <si>
-    <t>Microcare PEHG</t>
-  </si>
-  <si>
-    <t>Microcare ITO (THOR)</t>
-  </si>
-  <si>
-    <t>CARBOPOL ULTREZ 10</t>
-  </si>
-  <si>
-    <t>CARBOPOL AQUA SF1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ácido cítrico </t>
-  </si>
-  <si>
-    <t>ISP Captivates</t>
-  </si>
-  <si>
-    <t>Salicilato de sodio</t>
-  </si>
-  <si>
-    <t>Myritol 318</t>
-  </si>
-  <si>
-    <t>Sal refinada yodada</t>
-  </si>
-  <si>
-    <t>Hidróxido de sodio 50%</t>
-  </si>
-  <si>
-    <t>Benzoato de sodio</t>
-  </si>
-  <si>
-    <t>Vidrio</t>
-  </si>
-  <si>
-    <t>Columna1</t>
-  </si>
-  <si>
-    <t>Columna2</t>
-  </si>
-  <si>
-    <t>Columna3</t>
-  </si>
-  <si>
-    <t>Personas</t>
-  </si>
-  <si>
-    <t>Comercio Exterior</t>
-  </si>
-  <si>
-    <t>Kari de vacaciones</t>
-  </si>
-  <si>
-    <t>Motivo</t>
-  </si>
-  <si>
-    <t>No puede comer mole</t>
-  </si>
-  <si>
-    <t>omar</t>
-  </si>
-  <si>
-    <t>operatio</t>
-  </si>
-  <si>
-    <t>montacargas</t>
-  </si>
 </sst>
 </file>
 
@@ -348,7 +132,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -369,15 +153,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,12 +173,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="31">
     <border>
@@ -766,7 +537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -825,125 +596,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1"/>
@@ -964,13 +660,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -994,79 +702,81 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1156,17 +866,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EDD82AB4-2475-42FA-9068-EE6DCF9104AE}" name="Tabla4" displayName="Tabla4" ref="A2:C39" totalsRowShown="0">
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D7650164-2B6A-4AC8-B6EB-EF6B9E27864D}" name="Columna1" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{210632D6-7502-4AC8-A7D8-B181604D0C1A}" name="Columna2" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{EAA3C466-D9FA-407D-9D8F-A838BE480E89}" name="Columna3" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1519,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="82" zoomScaleNormal="82" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A17" sqref="A16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1542,67 +1241,67 @@
   <sheetData>
     <row r="1" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="45"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="48"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="52" t="s">
+      <c r="D3" s="54"/>
+      <c r="E3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54" t="s">
+      <c r="F3" s="71"/>
+      <c r="G3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="61"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="78"/>
     </row>
     <row r="5" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1618,274 +1317,271 @@
       <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="65"/>
+      <c r="I5" s="82"/>
     </row>
     <row r="6" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="73"/>
-      <c r="B6" s="74"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="21"/>
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="1:9" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="37"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="21"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
       <c r="F7" s="1"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="21"/>
       <c r="D8" s="5"/>
       <c r="E8" s="20"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="21"/>
       <c r="D9" s="5"/>
       <c r="E9" s="20"/>
       <c r="F9" s="1"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
     </row>
     <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="21"/>
       <c r="D10" s="5"/>
       <c r="E10" s="20"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="39"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33"/>
     </row>
     <row r="11" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="21"/>
       <c r="D11" s="5"/>
       <c r="E11" s="20"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
     </row>
     <row r="12" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="21"/>
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
       <c r="F12" s="1"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="21"/>
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
       <c r="F13" s="1"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="21"/>
       <c r="D14" s="11"/>
       <c r="E14" s="12"/>
       <c r="F14" s="1"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="39"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="33"/>
     </row>
     <row r="15" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="21"/>
       <c r="D15" s="11"/>
       <c r="E15" s="12"/>
       <c r="F15" s="1"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="39"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="33"/>
     </row>
     <row r="16" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
       <c r="E16" s="12"/>
       <c r="F16" s="1"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
-    </row>
-    <row r="17" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="31"/>
+    </row>
+    <row r="17" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
       <c r="E17" s="12"/>
       <c r="F17" s="1"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="35"/>
-    </row>
-    <row r="18" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="31"/>
+    </row>
+    <row r="18" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="37"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
       <c r="E18" s="12"/>
       <c r="F18" s="23"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
-    </row>
-    <row r="19" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
+    </row>
+    <row r="19" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="21"/>
       <c r="D19" s="11"/>
       <c r="E19" s="12"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
-    </row>
-    <row r="20" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="31"/>
+    </row>
+    <row r="20" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="37"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="21"/>
       <c r="D20" s="11"/>
       <c r="E20" s="12"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="35"/>
-    </row>
-    <row r="21" spans="1:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="31"/>
+    </row>
+    <row r="21" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="37"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="21"/>
       <c r="D21" s="11"/>
       <c r="E21" s="12"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="35"/>
-    </row>
-    <row r="22" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="31"/>
+    </row>
+    <row r="22" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="37"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="21"/>
       <c r="D22" s="11"/>
       <c r="E22" s="12"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="35"/>
-    </row>
-    <row r="23" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="31"/>
+    </row>
+    <row r="23" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="37"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="21"/>
       <c r="D23" s="11"/>
       <c r="E23" s="12"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="35"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="31"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="57"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="60"/>
+    </row>
+    <row r="27" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="91"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="78" t="e">
-        <f>+AVERAGE(F6:F24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="80"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="83"/>
-    </row>
-    <row r="27" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="87" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="89"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="29"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="68"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="70"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="43"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
@@ -1895,16 +1591,16 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="72"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="45"/>
     </row>
     <row r="30" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="75"/>
-      <c r="B30" s="76"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
       <c r="I30" s="16"/>
@@ -1915,16 +1611,16 @@
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="84" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
+      <c r="D31" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="86"/>
+      <c r="H31" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="26"/>
     </row>
     <row r="32" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
@@ -1932,18 +1628,63 @@
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="67"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="40"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="D31:F31"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="A27:I27"/>
     <mergeCell ref="H13:I13"/>
@@ -1960,51 +1701,6 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="H21:I21"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -2014,726 +1710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0B8360-51CC-4E00-864E-83DC56231456}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EE479A-E171-452C-9B81-77B5DBD1E61C}">
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="29">
-        <v>0</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="29">
-        <v>4</v>
-      </c>
-      <c r="D3" s="29"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="29">
-        <v>4</v>
-      </c>
-      <c r="D4" s="29"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="29">
-        <v>5</v>
-      </c>
-      <c r="D5" s="29"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="29">
-        <v>5</v>
-      </c>
-      <c r="D6" s="29"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="29">
-        <v>6</v>
-      </c>
-      <c r="D7" s="29"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="29">
-        <v>3</v>
-      </c>
-      <c r="D8" s="29"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="29">
-        <v>2</v>
-      </c>
-      <c r="D9" s="29"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="29">
-        <v>3</v>
-      </c>
-      <c r="D10" s="29"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="29">
-        <v>5</v>
-      </c>
-      <c r="D11" s="29"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="29">
-        <v>8</v>
-      </c>
-      <c r="D12" s="29"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="29">
-        <v>2</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="29">
-        <v>3</v>
-      </c>
-      <c r="D14" s="29"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824ABC5A-73A3-4766-BEBD-F66CEE44C7DD}">
-  <dimension ref="A1:C41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="92"/>
-    </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="25">
-        <v>1200</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="25">
-        <v>6500</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="25">
-        <v>3000</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="25">
-        <v>816</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="25">
-        <v>990</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="25">
-        <v>26</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="25">
-        <v>571</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="25">
-        <v>20000</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="25">
-        <v>1020</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="25">
-        <v>757</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="25">
-        <v>6</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="25">
-        <v>89</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="25">
-        <v>1442</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="25">
-        <v>14647</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="25">
-        <v>22794</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="25">
-        <v>2473</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="25">
-        <v>2469</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="25">
-        <v>492</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="25">
-        <v>410</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="25">
-        <v>311</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="25">
-        <v>250</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="25">
-        <v>26</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="25">
-        <v>370</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="25">
-        <v>86256000</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="25">
-        <v>525</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="25">
-        <v>100</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="25">
-        <v>146</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="25">
-        <v>40</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="25">
-        <v>5225</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="25">
-        <v>3180</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="25">
-        <v>55</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="25">
-        <v>1012</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="25">
-        <v>380</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" s="25">
-        <v>4000</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="25">
-        <v>50</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="25">
-        <v>1000</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="25">
-        <v>7529200</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="24"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="24"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F25040A21B6C0B4DAD6A4A01C7D738FF" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a942d2c141cf3d2f503a3772f082487d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a37af1ee-9152-44d4-b447-8af1d1bb59e8" xmlns:ns3="79cc9dd1-df6d-441a-a0b4-ff482f600b8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="175775575e6489816cf62581b5bb7970" ns2:_="" ns3:_="">
     <xsd:import namespace="a37af1ee-9152-44d4-b447-8af1d1bb59e8"/>
@@ -2962,23 +1939,20 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32B8C814-F910-4046-8DF2-10F4284CB23A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D75F0ADA-CCC4-4671-AD81-146B4A5EA00D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9D40BD7-8535-49C9-9805-FFA2A2A7C7BD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2995,4 +1969,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D75F0ADA-CCC4-4671-AD81-146B4A5EA00D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32B8C814-F910-4046-8DF2-10F4284CB23A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>